--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="2" r:id="rId1"/>
     <sheet name="华夏领先股票" sheetId="1" r:id="rId2"/>
+    <sheet name="工银双利债券A" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +71,42 @@
   </si>
   <si>
     <t>获利金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>485111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入净值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银双利债券A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券型基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入净值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +558,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,11 +584,11 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>SUM(华夏领先股票!E:E)</f>
-        <v>2800</v>
+        <f>SUM(华夏领先股票!E:E+工银双利债券A!G2)</f>
+        <v>13600</v>
       </c>
       <c r="B2">
-        <f>SUM(华夏领先股票!F:F)</f>
+        <f>SUM(华夏领先股票!F:F+工银双利债券A!H2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3">
@@ -560,7 +597,7 @@
       </c>
       <c r="D2">
         <f>B2-A2</f>
-        <v>-2800</v>
+        <v>-13600</v>
       </c>
     </row>
   </sheetData>
@@ -571,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +622,7 @@
     <col min="4" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,8 +641,14 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -624,6 +667,90 @@
       <c r="G2">
         <f>SUM(F:F)-SUM(E:E)</f>
         <v>-2800</v>
+      </c>
+      <c r="H2">
+        <v>2772.28</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>6811.92</v>
+      </c>
+      <c r="F2">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="G2">
+        <v>10800</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H:H)-SUM(G:G)</f>
+        <v>-10800</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="2" r:id="rId1"/>
-    <sheet name="华夏领先股票" sheetId="1" r:id="rId2"/>
-    <sheet name="工银双利债券A" sheetId="4" r:id="rId3"/>
+    <sheet name="工银双利债券A" sheetId="4" r:id="rId2"/>
+    <sheet name="华夏领先股票" sheetId="1" r:id="rId3"/>
+    <sheet name="嘉实策略混合" sheetId="8" r:id="rId4"/>
+    <sheet name="嘉实新收益混合" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="31">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +109,37 @@
   </si>
   <si>
     <t>卖出金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150521</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150521</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>070011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实策略混合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新收益混合</t>
+  </si>
+  <si>
+    <t>000870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +171,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -153,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,6 +211,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -177,11 +233,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 2" xfId="1" builtinId="17"/>
@@ -557,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,8 +643,8 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>SUM(华夏领先股票!E:E+工银双利债券A!G2)</f>
-        <v>13600</v>
+        <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)+SUM(嘉实新收益混合!G:G)</f>
+        <v>37300</v>
       </c>
       <c r="B2">
         <f>SUM(华夏领先股票!F:F+工银双利债券A!H2)</f>
@@ -597,7 +656,7 @@
       </c>
       <c r="D2">
         <f>B2-A2</f>
-        <v>-13600</v>
+        <v>-37300</v>
       </c>
     </row>
   </sheetData>
@@ -608,86 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2800</v>
-      </c>
-      <c r="G2">
-        <f>SUM(F:F)-SUM(E:E)</f>
-        <v>-2800</v>
-      </c>
-      <c r="H2">
-        <v>2772.28</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,7 +733,791 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)-SUM(G:G)</f>
-        <v>-10800</v>
+        <v>-28800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2800</v>
+      </c>
+      <c r="G2">
+        <f>SUM(F:F)-SUM(E:E)</f>
+        <v>-2800</v>
+      </c>
+      <c r="H2">
+        <v>2772.28</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>2900</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H:H)-SUM(G:G)</f>
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>2800</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H:H)-SUM(G:G)</f>
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="2" r:id="rId1"/>
     <sheet name="工银双利债券A" sheetId="4" r:id="rId2"/>
     <sheet name="华夏领先股票" sheetId="1" r:id="rId3"/>
     <sheet name="嘉实策略混合" sheetId="8" r:id="rId4"/>
-    <sheet name="嘉实新收益混合" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,22 +131,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘉实新收益混合</t>
-  </si>
-  <si>
-    <t>000870</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合型基金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>20150522</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +162,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,21 +194,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -233,14 +201,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="标题 2" xfId="1" builtinId="17"/>
@@ -616,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,8 +608,8 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)+SUM(嘉实新收益混合!G:G)</f>
-        <v>37300</v>
+        <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)</f>
+        <v>47308</v>
       </c>
       <c r="B2">
         <f>SUM(华夏领先股票!F:F+工银双利债券A!H2)</f>
@@ -656,7 +621,7 @@
       </c>
       <c r="D2">
         <f>B2-A2</f>
-        <v>-37300</v>
+        <v>-47308</v>
       </c>
     </row>
   </sheetData>
@@ -669,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +698,7 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)-SUM(G:G)</f>
-        <v>-28800</v>
+        <v>-38808</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -749,11 +714,20 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3">
+        <v>11175.92</v>
+      </c>
+      <c r="F3">
+        <v>1.601</v>
+      </c>
       <c r="G3">
         <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -762,6 +736,9 @@
       </c>
       <c r="D4" t="s">
         <v>19</v>
+      </c>
+      <c r="G4">
+        <v>10008</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1094,7 +1071,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,16 +1123,24 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
+      <c r="E2">
+        <v>1020.78</v>
+      </c>
+      <c r="F2">
+        <v>2.8239999999999998</v>
+      </c>
       <c r="G2">
         <v>2900</v>
       </c>
       <c r="I2">
         <f>SUM(H:H)-SUM(G:G)</f>
-        <v>-2900</v>
+        <v>-5700</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1164,6 +1149,9 @@
       </c>
       <c r="D3" t="s">
         <v>27</v>
+      </c>
+      <c r="G3">
+        <v>2800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1303,222 +1291,6 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>2800</v>
-      </c>
-      <c r="I2">
-        <f>SUM(H:H)-SUM(G:G)</f>
-        <v>-2800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="2" r:id="rId1"/>
     <sheet name="工银双利债券A" sheetId="4" r:id="rId2"/>
     <sheet name="华夏领先股票" sheetId="1" r:id="rId3"/>
     <sheet name="嘉实策略混合" sheetId="8" r:id="rId4"/>
+    <sheet name="新消费股票基金" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="32">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,6 +133,18 @@
   </si>
   <si>
     <t>20150522</t>
+  </si>
+  <si>
+    <t>20150525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消费股票基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -582,7 +595,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,11 +621,11 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)</f>
-        <v>47308</v>
+        <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)+SUM(新消费股票基金!G:G)</f>
+        <v>56108</v>
       </c>
       <c r="B2">
-        <f>SUM(华夏领先股票!F:F+工银双利债券A!H2)</f>
+        <f>SUM(华夏领先股票!F:F)+SUM(工银双利债券A!H:H)+SUM(嘉实策略混合!H:H)+SUM(新消费股票基金!H:H)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3">
@@ -621,7 +634,7 @@
       </c>
       <c r="D2">
         <f>B2-A2</f>
-        <v>-47308</v>
+        <v>-56108</v>
       </c>
     </row>
   </sheetData>
@@ -634,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,6 +750,12 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
+      <c r="E4">
+        <v>9948.31</v>
+      </c>
+      <c r="F4">
+        <v>1.603</v>
+      </c>
       <c r="G4">
         <v>10008</v>
       </c>
@@ -885,7 +904,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,7 +1090,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,6 +1169,12 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="E3">
+        <v>991.56</v>
+      </c>
+      <c r="F3">
+        <v>2.8069999999999999</v>
+      </c>
       <c r="G3">
         <v>2800</v>
       </c>
@@ -1251,6 +1276,228 @@
       </c>
       <c r="D12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="8" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8800</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H:H)-SUM(G:G)</f>
+        <v>-8800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
   <si>
     <t>基金代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,15 +135,15 @@
     <t>20150522</t>
   </si>
   <si>
-    <t>20150525</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>001044</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新消费股票基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150527</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
     <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>SUM(华夏领先股票!E:E)+SUM(工银双利债券A!G:G)+SUM(嘉实策略混合!G:G)+SUM(新消费股票基金!G:G)</f>
-        <v>56108</v>
+        <v>66108</v>
       </c>
       <c r="B2">
         <f>SUM(华夏领先股票!F:F)+SUM(工银双利债券A!H:H)+SUM(嘉实策略混合!H:H)+SUM(新消费股票基金!H:H)</f>
@@ -634,7 +634,7 @@
       </c>
       <c r="D2">
         <f>B2-A2</f>
-        <v>-56108</v>
+        <v>-66108</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1386,27 +1386,32 @@
       </c>
       <c r="I2">
         <f>SUM(H:H)-SUM(G:G)</f>
-        <v>-8800</v>
+        <v>-18800</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1414,10 +1419,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1425,10 +1430,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1436,10 +1441,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1447,10 +1452,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1458,10 +1463,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1469,10 +1474,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1480,10 +1485,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1491,10 +1496,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="2" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,6 +1381,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>6657.16</v>
+      </c>
+      <c r="F2">
+        <v>1.3140000000000001</v>
+      </c>
       <c r="G2">
         <v>8800</v>
       </c>
@@ -1401,6 +1407,12 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3">
+        <v>7564.96</v>
+      </c>
+      <c r="F3">
+        <v>1.3140000000000001</v>
       </c>
       <c r="G3">
         <v>10000</v>
